--- a/Output_testing/R1_201907/Country/HKD/MN/MOROCCO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MOROCCO_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>599.644049</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>70.76273658556229</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>992.382831</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>76.34345104346271</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1067.243857</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>73.66650014801166</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>609.786885</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>73.49969997483515</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>15.15408146709349</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>13.063014</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.541538885005282</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>34.237977</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.633908245160584</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>47.111603</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.251878084478463</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>27.610052</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.327934050745609</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>14.75296882744175</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>42.005028</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.956925256892141</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>37.491336</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.884187316688887</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>30.557471</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.109229233019013</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>25.880207</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.119429913266548</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>46.09480641633323</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>13.638113</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.609405111836827</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>39.871113</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.067262218046041</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>39.26345</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.7101593757278</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>18.885582</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.276343826007585</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-39.38845169434146</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>10.326503</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.218608961195609</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>21.62189</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.66335979333578</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>28.906036</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.995238943101671</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>15.866798</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.912479460035147</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-32.16143756818894</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>7.277022</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.8587461040797251</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>6.817022</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.5244296546271147</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>6.264885</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.4324336455560185</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>13.371682</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.611734590124718</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>180.3459835163879</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.561875</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.6563452037974353</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>8.257820000000001</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.6352694315161195</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>8.620362</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5950204298518762</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>9.550668</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.15117469697509</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>29.13078749398332</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>12.7592</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.505686432056139</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>7.045677</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5420199547139799</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>16.029786</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.10645587228861</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>9.056229999999999</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.091578392839822</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>9.117410050306486</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.955055</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1127040375076318</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.49769</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.269075317446931</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>8.516550000000001</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.5878548072406931</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.687507999999999</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.047135068391935</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>80.54988534183596</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>11.098852</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.30975224683359</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>15.556565</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.196757764627173</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>17.397482</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.200861079613626</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>8.437932</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.017052819048512</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-0.07660697307008135</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>131.072164</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>15.46755117523333</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>133.112627</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.24027926037468</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>178.83911</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.34436838111056</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>82.51186300000001</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.945437207729881</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-28.87451552299122</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,545 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2.744191</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>30.09649290588175</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.540204</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>64.60377176693179</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.41845</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>55.61608998635916</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-45.04330050925366</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1.260082281418596</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.465423</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>26.7419202492321</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.981611</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>38.48804378554056</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-1.194391012575025</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.45660375752947</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.679059475480085</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.913863681487451</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>3.634130858666633</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-16.44339469556281</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>32.66761617165122</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.32499800394298</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.560005051212875</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.628352227525465</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-62.35462612967848</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.755721228456643</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.9486535169647299</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.308510855728017</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.6333831419081716</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>111.939123589609</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.6045639953428261</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.8777577286476764</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.7382289221354075</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.455485091622578</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.2676704857339733</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.2492576468939421</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>52.12005884236267</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.748125</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>63.0416772318769</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.2835285203741986</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1838,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>599.644049</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>70.84133067218843</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>992.382831</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>76.8827378945299</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1067.243857</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>73.9462002665723</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>609.786885</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>73.7263437325002</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>15.15408146709349</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>13.063014</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.543251026826128</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>34.237977</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>2.652514059596768</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>47.111603</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3.264224954276076</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>27.610052</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.338196071934549</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>14.75296882744175</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>42.005028</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.962430767727896</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>37.491336</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.904561091710133</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>30.557471</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.117237644785034</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>25.880207</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.129048990862206</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>46.09480641633323</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>13.638113</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.611192630676256</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>34.261881</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.654365970884651</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>39.26345</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.720449424762112</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>18.885582</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.283363162394545</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-39.38845169434146</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>10.326503</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.219962434264641</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>21.62189</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.675109695296972</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>28.906036</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.002814551659442</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>15.866798</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.918376783853176</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-32.16143756818894</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>7.277022</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.8596998880760844</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>6.817022</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.5281342031271438</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>6.264885</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.4340755281171367</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>13.371682</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.616704536722999</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>180.3459835163879</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.561875</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.6570741870772373</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>8.257820000000001</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.6397569474276876</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>8.620362</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5972796288696274</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>9.550668</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.154724460567875</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>29.13078749398332</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>12.7592</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.507358753613824</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>7.045677</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5458487603364408</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>16.029786</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.110656911268871</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>9.056229999999999</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.094944385202021</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>9.117410050306486</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.955055</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1128292145614655</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>3.49769</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.270976053903857</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>8.516550000000001</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5900867995160325</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>8.687507999999999</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.050364015268786</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>80.54988534183596</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11.098852</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.311206950064604</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>15.556565</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.205211609947953</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>17.397482</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.205420560322876</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>8.437932</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.020189004267389</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-0.07660697307008135</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>130.132025</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.37366347492342</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>129.603883</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.0407837132385</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>173.359238</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.01155372985049</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>79.961432</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.667744856426259</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-28.68211520313188</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2296,449 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>695.110863</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>90.2890818330598</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>781.573562</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>91.00003127242219</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>872.981622</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>92.92840061851507</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>416.876676</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>88.09762682885422</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-17.44672274005304</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>9.612881</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.248632765591617</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>12.6778</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.476099311129864</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>10.843427</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.154276679989058</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>16.872741</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>3.565679074350296</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>325.0681711685838</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>5.02402</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.6525781383320564</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>10.710167</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.247004222403398</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.561392</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.1662092965555516</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>16.207476</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.425090091837161</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>7.294624</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.947510589080525</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>7.079521</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.8242815055632211</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>7.727996</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.8226408095751206</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.264533</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.9012143361873624</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-35.63946365276458</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7.769869</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.009240935964418</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>8.224812</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.9576298196353182</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>7.063995</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.7519582781402326</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.988853</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.8429554909163486</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-10.86192698632265</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3.234788</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.4201718804739783</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>4.419862</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.5146125710682502</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2.983078</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.3175469683143899</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.226466</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.4705141402900932</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-25.36346686208004</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>3.533219</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.4589355689944407</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>3.044757</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.3545065950131593</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2.221089</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.236433669621257</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.453507</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.3071664227123309</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>44.0136770225229</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1.991596</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2586916473241688</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1.32349</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.1540963477328293</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.481055</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.1576574682783584</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.182087</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.2498078338286304</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>248.1528932556969</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>8.998483999999999</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.16882773884873</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>8.01618</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.9333384164360531</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.03647</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1103316461214946</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.168173</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.2468674189523213</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>51.01005334984545</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.113195</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.2352490396890095</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>27.302213</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>3.546328902330259</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>21.8016</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.538399938595722</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>31.496529</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>3.352787723410606</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7.844824</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.657829322382237</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-66.73522177482789</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
